--- a/QUANGHANH2/excel/TCLD/CD_TD_Report.xlsx
+++ b/QUANGHANH2/excel/TCLD/CD_TD_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP CÁC ĐƠN VỊ CHẤM DỨT, TUYỂN DỤNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,14 @@
     </font>
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -105,11 +116,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +191,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,62 +512,89 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
